--- a/Ikea-link copy 2.xlsx
+++ b/Ikea-link copy 2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="80">
   <si>
     <t>storage-organisation</t>
   </si>
@@ -247,208 +247,7 @@
     <t>https://www.ikea.cn/cn/en/cat/unit-kitchens-22957/</t>
   </si>
   <si>
-    <t>Home Smart</t>
-  </si>
-  <si>
-    <t>https://www.ikea.cn/cn/en/cat/smart-air-purifiers-56472/</t>
-  </si>
-  <si>
-    <t>https://www.ikea.cn/cn/en/cat/electric-blinds-44531/</t>
-  </si>
-  <si>
-    <t>https://www.ikea.cn/cn/en/cat/smart-systems-controls-53259/</t>
-  </si>
-  <si>
-    <t>https://www.ikea.cn/cn/en/cat/wi-fi-speakers-46194/</t>
-  </si>
-  <si>
-    <t>Beds &amp; mattresses</t>
-  </si>
-  <si>
-    <t>https://www.ikea.cn/cn/en/cat/mattresses-bm002/</t>
-  </si>
-  <si>
-    <t>https://www.ikea.cn/cn/en/cat/bedside-tables-20656/</t>
-  </si>
-  <si>
-    <t>https://www.ikea.cn/cn/en/cat/headboards-19064/</t>
-  </si>
-  <si>
-    <t>https://www.ikea.cn/cn/en/cat/under-bed-storage-19059/</t>
-  </si>
-  <si>
-    <t>https://www.ikea.cn/cn/en/cat/bed-slats-24827/</t>
-  </si>
-  <si>
-    <t>Bathroom products</t>
-  </si>
-  <si>
-    <t>https://www.ikea.cn/cn/en/cat/bathroom-vanities-20719/</t>
-  </si>
-  <si>
-    <t>https://www.ikea.cn/cn/en/cat/bathroom-storage-ba002/</t>
-  </si>
-  <si>
-    <t>https://www.ikea.cn/cn/en/cat/bathroom-mirrors-20490/</t>
-  </si>
-  <si>
-    <t>https://www.ikea.cn/cn/en/cat/bathroom-accessories-10555/</t>
-  </si>
-  <si>
-    <t>https://www.ikea.cn/cn/en/cat/bathroom-laundry-ba003/</t>
-  </si>
-  <si>
-    <t>https://www.ikea.cn/cn/en/cat/bathroom-furniture-sets-46079/</t>
-  </si>
-  <si>
-    <t>https://www.ikea.cn/cn/en/cat/bathroom-stools-benches-20859/</t>
-  </si>
-  <si>
-    <t>https://www.ikea.cn/cn/en/cat/bathroom-sinks-20723/</t>
-  </si>
-  <si>
-    <t>https://www.ikea.cn/cn/en/cat/showers-40690/</t>
-  </si>
-  <si>
-    <t>https://www.ikea.cn/cn/en/cat/bathroom-taps-20724/</t>
-  </si>
-  <si>
-    <t>Outdoor products</t>
-  </si>
-  <si>
-    <t>https://www.ikea.cn/cn/en/cat/outdoor-pots-plants-31787/</t>
-  </si>
-  <si>
-    <t>https://www.ikea.cn/cn/en/cat/outdoor-organising-21958/</t>
-  </si>
-  <si>
-    <t>https://www.ikea.cn/cn/en/cat/picnic-outdoor-recreation-42924/</t>
-  </si>
-  <si>
-    <t>https://www.ikea.cn/cn/en/cat/outdoor-accessories-34203/</t>
-  </si>
-  <si>
-    <t>https://www.ikea.cn/cn/en/cat/outdoor-rugs-34204/</t>
-  </si>
-  <si>
-    <t>https://www.ikea.cn/cn/en/cat/outdoor-flooring-21957/</t>
-  </si>
-  <si>
-    <t>https://www.ikea.cn/cn/en/cat/parasols-gazebos-17887/</t>
-  </si>
-  <si>
-    <t>https://www.ikea.cn/cn/en/cat/outdoor-kitchen-55998/</t>
-  </si>
-  <si>
-    <t>https://www.ikea.cn/cn/en/cat/bbqs-24898/</t>
-  </si>
-  <si>
-    <t>Working from home</t>
-  </si>
-  <si>
-    <t>https://www.ikea.cn/cn/en/cat/desk-chairs-20652/</t>
-  </si>
-  <si>
-    <t>https://www.ikea.cn/cn/en/cat/desks-computer-desks-20649/</t>
-  </si>
-  <si>
-    <t>https://www.ikea.cn/cn/en/cat/desk-chair-sets-53249/</t>
-  </si>
-  <si>
-    <t>https://www.ikea.cn/cn/en/cat/drawer-units-10711/</t>
-  </si>
-  <si>
-    <t>https://www.ikea.cn/cn/en/cat/storage-units-cabinets-10385/</t>
-  </si>
-  <si>
-    <t>https://www.ikea.cn/cn/en/cat/work-lamps-20502/</t>
-  </si>
-  <si>
-    <t>https://www.ikea.cn/cn/en/cat/cables-chargers-40845/</t>
-  </si>
-  <si>
-    <t>https://www.ikea.cn/cn/en/cat/paper-media-organisers-10551/</t>
-  </si>
-  <si>
-    <t>Kitchenware &amp; tableware</t>
-  </si>
-  <si>
-    <t>https://www.ikea.cn/cn/en/cat/food-storage-organising-15937/</t>
-  </si>
-  <si>
-    <t>https://www.ikea.cn/cn/en/cat/dinnerware-18860/</t>
-  </si>
-  <si>
-    <t>https://www.ikea.cn/cn/en/cat/serveware-16043/</t>
-  </si>
-  <si>
-    <t>https://www.ikea.cn/cn/en/cat/coffee-tea-16044/</t>
-  </si>
-  <si>
-    <t>https://www.ikea.cn/cn/en/cat/cookware-kt003/</t>
-  </si>
-  <si>
-    <t>https://www.ikea.cn/cn/en/cat/glassware-jugs-18868/</t>
-  </si>
-  <si>
-    <t>https://www.ikea.cn/cn/en/cat/cooking-baking-utensils-kt002/</t>
-  </si>
-  <si>
-    <t>https://www.ikea.cn/cn/en/cat/dishwashing-accessories-15938/</t>
-  </si>
-  <si>
-    <t>https://www.ikea.cn/cn/en/cat/cutlery-18865/</t>
-  </si>
-  <si>
-    <t>https://www.ikea.cn/cn/en/cat/knives-chopping-boards-15934/</t>
-  </si>
-  <si>
-    <t>https://www.ikea.cn/cn/en/cat/bakeware-20636/</t>
-  </si>
-  <si>
-    <t>https://www.ikea.cn/cn/en/cat/napkins-napkin-holders-20560/</t>
-  </si>
-  <si>
-    <t>https://www.ikea.cn/cn/en/cat/childrens-kitchenware-tableware-18714/</t>
-  </si>
-  <si>
-    <t>Pots &amp; plants</t>
-  </si>
-  <si>
-    <t>https://www.ikea.cn/cn/en/cat/flower-pots-planters-pp004/</t>
-  </si>
-  <si>
-    <t>https://www.ikea.cn/cn/en/cat/plant-stands-movers-20494/</t>
-  </si>
-  <si>
-    <t>https://www.ikea.cn/cn/en/cat/growing-accessories-24887/</t>
-  </si>
-  <si>
-    <t>Home electronics</t>
-  </si>
-  <si>
-    <t>https://www.ikea.cn/cn/en/cat/mobile-tablet-accessories-40843/</t>
-  </si>
-  <si>
-    <t>https://www.ikea.cn/cn/en/cat/speakers-40842/</t>
-  </si>
-  <si>
-    <t>https://www.ikea.cn/cn/en/cat/air-quality-products-49081/</t>
-  </si>
-  <si>
-    <t>https://www.ikea.cn/cn/en/cat/cable-management-accessories-16195/</t>
-  </si>
-  <si>
     <t>Winter holidays</t>
-  </si>
-  <si>
-    <t>https://www.ikea.cn/cn/en/cat/holiday-lights-49150/</t>
-  </si>
-  <si>
-    <t>https://www.ikea.cn/cn/en/cat/holiday-pots-plants-49151/</t>
-  </si>
-  <si>
-    <t>https://www.ikea.cn/cn/en/cat/christmas-decoration-49149/</t>
   </si>
   <si>
     <t>https://www.ikea.cn/cn/en/cat/holiday-textiles-49152/</t>
@@ -865,7 +664,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B155"/>
+  <dimension ref="A1:B79"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
@@ -1491,628 +1290,20 @@
         <v>76</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="18.75">
-      <c r="A78" s="4" t="s">
+    <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="19.5">
+      <c r="A78" s="3" t="s">
         <v>77</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>78</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="19.5">
       <c r="A79" s="4" t="s">
         <v>77</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="18.75">
-      <c r="A80" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="B80" s="2" t="s">
         <v>79</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="18.75">
-      <c r="A81" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="B81" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="18.75">
-      <c r="A82" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="B82" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="18.75">
-      <c r="A83" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="B83" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="18.75">
-      <c r="A84" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="B84" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="18.75">
-      <c r="A85" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="B85" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="18.75">
-      <c r="A86" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="B86" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="18.75">
-      <c r="A87" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="B87" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="18.75">
-      <c r="A88" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="B88" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="18.75">
-      <c r="A89" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="B89" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="18.75">
-      <c r="A90" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="B90" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="18.75">
-      <c r="A91" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="B91" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="18.75">
-      <c r="A92" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="B92" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="18.75">
-      <c r="A93" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="B93" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="18.75">
-      <c r="A94" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="B94" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="18.75">
-      <c r="A95" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="B95" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="18.75">
-      <c r="A96" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="B96" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="18.75">
-      <c r="A97" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="B97" s="2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="18.75">
-      <c r="A98" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="B98" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="99" customHeight="1" ht="18.75">
-      <c r="A99" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="B99" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="100" customHeight="1" ht="18.75">
-      <c r="A100" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="B100" s="2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="101" customHeight="1" ht="18.75">
-      <c r="A101" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="B101" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="102" customHeight="1" ht="18.75">
-      <c r="A102" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="B102" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="103" customHeight="1" ht="18.75">
-      <c r="A103" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="B103" s="2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="104" customHeight="1" ht="18.75">
-      <c r="A104" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="B104" s="2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="105" customHeight="1" ht="18.75">
-      <c r="A105" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="B105" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="106" customHeight="1" ht="18.75">
-      <c r="A106" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="B106" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="107" customHeight="1" ht="18.75">
-      <c r="A107" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="B107" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="108" customHeight="1" ht="18.75">
-      <c r="A108" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="B108" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="109" customHeight="1" ht="18.75">
-      <c r="A109" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="B109" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="110" customHeight="1" ht="18.75">
-      <c r="A110" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="B110" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="111" customHeight="1" ht="18.75">
-      <c r="A111" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="B111" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="112" customHeight="1" ht="18.75">
-      <c r="A112" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="B112" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="113" customHeight="1" ht="18.75">
-      <c r="A113" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="B113" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="114" customHeight="1" ht="18.75">
-      <c r="A114" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="B114" s="2" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="115" customHeight="1" ht="18.75">
-      <c r="A115" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="B115" s="2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="116" customHeight="1" ht="18.75">
-      <c r="A116" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="B116" s="2" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="117" customHeight="1" ht="18.75">
-      <c r="A117" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="B117" s="2" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="118" customHeight="1" ht="18.75">
-      <c r="A118" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="B118" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="119" customHeight="1" ht="18.75">
-      <c r="A119" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="B119" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="120" customHeight="1" ht="18.75">
-      <c r="A120" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="B120" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="121" customHeight="1" ht="18.75">
-      <c r="A121" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="B121" s="2" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="122" customHeight="1" ht="19.5">
-      <c r="A122" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="B122" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="123" customHeight="1" ht="19.5">
-      <c r="A123" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="B123" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="124" customHeight="1" ht="19.5">
-      <c r="A124" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="B124" s="2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="125" customHeight="1" ht="19.5">
-      <c r="A125" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="B125" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="126" customHeight="1" ht="19.5">
-      <c r="A126" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="B126" s="2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="127" customHeight="1" ht="19.5">
-      <c r="A127" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="B127" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="128" customHeight="1" ht="19.5">
-      <c r="A128" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="B128" s="2" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="129" customHeight="1" ht="19.5">
-      <c r="A129" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="B129" s="2" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="130" customHeight="1" ht="19.5">
-      <c r="A130" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="B130" s="2" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="131" customHeight="1" ht="19.5">
-      <c r="A131" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="B131" s="2" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="132" customHeight="1" ht="19.5">
-      <c r="A132" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="B132" s="2" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="133" customHeight="1" ht="19.5">
-      <c r="A133" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="B133" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="134" customHeight="1" ht="19.5">
-      <c r="A134" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="B134" s="2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="135" customHeight="1" ht="19.5">
-      <c r="A135" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="B135" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="136" customHeight="1" ht="19.5">
-      <c r="A136" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="B136" s="2" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="137" customHeight="1" ht="19.5">
-      <c r="A137" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="B137" s="2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="138" customHeight="1" ht="19.5">
-      <c r="A138" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="B138" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="139" customHeight="1" ht="19.5">
-      <c r="A139" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="B139" s="2" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="140" customHeight="1" ht="19.5">
-      <c r="A140" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="B140" s="2" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="141" customHeight="1" ht="19.5">
-      <c r="A141" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="B141" s="2" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="142" customHeight="1" ht="18.75">
-      <c r="A142" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="B142" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="143" customHeight="1" ht="18.75">
-      <c r="A143" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="B143" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="144" customHeight="1" ht="18.75">
-      <c r="A144" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="B144" s="2" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="145" customHeight="1" ht="19.5">
-      <c r="A145" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="B145" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="146" customHeight="1" ht="19.5">
-      <c r="A146" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="B146" s="2" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="147" customHeight="1" ht="19.5">
-      <c r="A147" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="B147" s="2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="148" customHeight="1" ht="19.5">
-      <c r="A148" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="B148" s="2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="149" customHeight="1" ht="19.5">
-      <c r="A149" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="B149" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="150" customHeight="1" ht="19.5">
-      <c r="A150" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="B150" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="151" customHeight="1" ht="19.5">
-      <c r="A151" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="B151" s="2" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="152" customHeight="1" ht="19.5">
-      <c r="A152" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="B152" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="153" customHeight="1" ht="19.5">
-      <c r="A153" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="B153" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="154" customHeight="1" ht="19.5">
-      <c r="A154" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="B154" s="2" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="155" customHeight="1" ht="19.5">
-      <c r="A155" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="B155" s="2" t="s">
-        <v>146</v>
       </c>
     </row>
   </sheetData>
